--- a/Test/Lawnmower/T2/Sensors_data_1000023.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8435122597825598</v>
+        <v>0.9726038053046713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005662632681890343</v>
+        <v>0.001097643646945691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4816139423440379</v>
+        <v>0.01555898283998708</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,18 +500,93 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8901958941295507</v>
+        <v>-1.001389030794694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003577494772739162</v>
+        <v>0.07242184543790753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07953605601577127</v>
+        <v>0.4837108955730181</v>
       </c>
       <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9457687263240783</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001766892927697068</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.08486877354179964</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9736429614006497</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000665797800713762</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4838474731869972</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.908251816735386</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.003795110395067108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1543132079958601</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
